--- a/src/attributions/attributions_ig_traj_161.xlsx
+++ b/src/attributions/attributions_ig_traj_161.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.3074164942345954</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04432967825894249</v>
+        <v>-0.09341493104617134</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00607110411041003</v>
+        <v>0.004674670239064709</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02406464996657405</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>-0.07542117018312261</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.003648186911826826</v>
+        <v>0.1341869912615439</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01703124172766123</v>
+        <v>0.01291851266193206</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04593643390967305</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1061,79 +1061,79 @@
         <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.02233220189895401</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.007350830230064478</v>
+        <v>-0.02742237103706371</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02230658451537425</v>
+        <v>-0.02538271151421819</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.002232872181218939</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.07611775469051614</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.03826059117266335</v>
+        <v>0.003225467932423122</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.06504689548933268</v>
+        <v>0.07491411140070604</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.03186835631404289</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.07628572389906658</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.05874352014934348</v>
+        <v>-0.09223501850750063</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.05966740233653407</v>
+        <v>-0.08544536949717943</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.02267527552045228</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.5317713854999866</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.05544508790058459</v>
+        <v>-0.06513743244709896</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.04513863767570599</v>
+        <v>0.2342374762156317</v>
       </c>
       <c r="AY2" t="n">
         <v>-0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.1153804409313852</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
         <v>0</v>
@@ -1169,16 +1169,16 @@
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.0005167597096400455</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.007517349461901216</v>
+        <v>-0.007075147866563221</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.004440853405704845</v>
+        <v>-0.02636139528553031</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,34 +1187,34 @@
         <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.0008849918808914519</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.02169172162740427</v>
       </c>
       <c r="BN2" t="n">
         <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.02091589918187182</v>
+        <v>0.06014520328497108</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02251694560933326</v>
+        <v>0.1345272154303411</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
         <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.03209034387816785</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
         <v>-0</v>
@@ -1223,70 +1223,70 @@
         <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.3325617574459699</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.07851244880538086</v>
+        <v>-0.1176913149945369</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.006214998596867873</v>
+        <v>0.01533143797405323</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.08885908738770283</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.1161711595516032</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.03131538792729498</v>
+        <v>0.02635387389107502</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.03090473777923237</v>
+        <v>-0.04286601132051968</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.01332719852839457</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>0.07074041989946581</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.04555862516064836</v>
+        <v>-0.1285288398437327</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02689192579234687</v>
+        <v>-0.2113171528632981</v>
       </c>
       <c r="CR2" t="n">
         <v>0</v>
@@ -1295,79 +1295,79 @@
         <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.04531920608901931</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>-0.1069017878704253</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.02670140571525782</v>
+        <v>0.06426346394443246</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.03790234402006559</v>
+        <v>0.0006521649069493775</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.005172971822284899</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0</v>
+        <v>-0.01600797801108925</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.02600745898074608</v>
+        <v>0.07389782302542051</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.02093294146912702</v>
+        <v>0.09221635158958501</v>
       </c>
       <c r="DJ2" t="n">
         <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.03003853559297597</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.1090411329093383</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.01209996768012054</v>
+        <v>0.05682610736348229</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.0243774716476001</v>
+        <v>-0.04692753836719188</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1376,61 +1376,61 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.0064481582144025</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>-0.007025311030457646</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.004554847655789888</v>
+        <v>-0.07654994292295714</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0007708407605983943</v>
+        <v>-0.008867357682909941</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.05317783869091185</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.04668066978820579</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.03831059204192189</v>
+        <v>0.02693956084076526</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.01496285598260948</v>
+        <v>0.007347152479384608</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.02306701133268725</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
         <v>-0</v>
@@ -1439,121 +1439,121 @@
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0.1379833513535925</v>
       </c>
       <c r="EQ2" t="n">
         <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.04214987282603467</v>
+        <v>-0.06659283803671988</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.06821103564676455</v>
+        <v>-0.06569717950100426</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.04085877545382965</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.1148811206685352</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.02471019926113894</v>
+        <v>0.05831501288991423</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.03401175894821112</v>
+        <v>-0.03244037376378027</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.01909179782598453</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.02588869626331234</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.05443435489712879</v>
+        <v>0.06749980048397024</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0552438995753379</v>
+        <v>0.07641861895000003</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.02849968136935811</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0.06795110494189902</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.01458045188046717</v>
+        <v>0.01151451866390557</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.08874828133425525</v>
+        <v>0.08164723067236963</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV2" t="n">
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.006596198771503163</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.04764262769462411</v>
       </c>
       <c r="GA2" t="n">
         <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.03219289917578907</v>
+        <v>-0.02385462491590652</v>
       </c>
       <c r="GC2" t="n">
         <v>0</v>
@@ -1565,225 +1565,225 @@
         <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0379900351243298</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.1949238575876912</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1085121852509097</v>
+        <v>-0.03114498496360391</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02776336297890767</v>
+        <v>-0.07923089661822807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002694445919243796</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.004365123150589923</v>
+        <v>-0.009342831864621334</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
         <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.01877851228479292</v>
       </c>
       <c r="L3" t="n">
         <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.006858331231820026</v>
+        <v>0.0747743588337446</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007790371516954232</v>
+        <v>0.03751621453021287</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1334139956830071</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02503132557503308</v>
+        <v>-0.002876843763223824</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.06369757708807695</v>
       </c>
       <c r="U3" t="n">
         <v>-0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.0180182450868498</v>
+        <v>-0.02272747532779318</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.03764863710526998</v>
+        <v>-0.0077105335090246</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02127012163608449</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.001468123870391386</v>
+        <v>0.01745469756105694</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0.01090949819782506</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0702035302449688</v>
+        <v>0.1010786336125553</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.02966886002421549</v>
+        <v>-0.01867316016433635</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.02206670453995274</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.03278964132193905</v>
+        <v>0.0161259627619541</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0.02574990305549862</v>
       </c>
       <c r="AM3" t="n">
         <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.03399869678097162</v>
+        <v>-0.04601608618033447</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.03481817902418356</v>
+        <v>-0.0719721900404449</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.03688977241008932</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.01099661001418288</v>
+        <v>-0.004297196984433509</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
         <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>0.3356390603101935</v>
       </c>
       <c r="AV3" t="n">
         <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1064278618590034</v>
+        <v>0.0625796232022424</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1075402788605639</v>
+        <v>0.1362480754090794</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.09784545096113849</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.07854086282658368</v>
+        <v>0.07871231897097564</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>-0.002768513706732676</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.02095483826896782</v>
+        <v>-0.02133969973055314</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.02751382911474927</v>
+        <v>-0.08180121658650671</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.05294512963576164</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
         <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.01047515395265286</v>
+        <v>0.03509336970279404</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0.06536543766221746</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.01725383339845845</v>
+        <v>0.145763656455779</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.005899789533731737</v>
+        <v>0.06541113298625141</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.02705892467023033</v>
+        <v>-0</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.03847225255993844</v>
+        <v>0.05418167695910962</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
@@ -1792,295 +1792,295 @@
         <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.2154047004834228</v>
       </c>
       <c r="BW3" t="n">
         <v>-0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.04565842692650061</v>
+        <v>0.02998234752580764</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.02455055526100293</v>
+        <v>-0.01077114859756164</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0.01188054342261669</v>
+        <v>-0</v>
       </c>
       <c r="CA3" t="n">
         <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0.03643368578205682</v>
+        <v>0.008820068710335936</v>
       </c>
       <c r="CC3" t="n">
         <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.08129824093831874</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0.05008086815129045</v>
+        <v>0.01573675010557837</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.005573165135482614</v>
+        <v>0.001257268742177206</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0.007574239621664217</v>
+        <v>-0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.006403043400838623</v>
+        <v>0.007887318591604405</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0.002549597064313447</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.02379830624447655</v>
+        <v>-0.09342829691870316</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.135080140621014</v>
+        <v>-0.0546662775309722</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0.005438648115238275</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0358724724190297</v>
+        <v>0.0858680542764296</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.06861693394474833</v>
       </c>
       <c r="CX3" t="n">
         <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0.04947878325189203</v>
+        <v>0.04630019861552669</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.01842380415157246</v>
+        <v>-0.01231364008170116</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.02593387290019757</v>
+        <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0.005058749850307858</v>
+        <v>0.003515115668967814</v>
       </c>
       <c r="DD3" t="n">
         <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.09632281738589744</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0.09653564123506035</v>
+        <v>0.02395397350912493</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.03672769888492239</v>
+        <v>0.00298207506782805</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0.001962291002981582</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.0130286298762081</v>
+        <v>0.01506645766739277</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.09020795120060893</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.07959747003074148</v>
+        <v>0.01727420716382665</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.04223826711301168</v>
+        <v>0.0427616801964659</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.03945536689226924</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
-        <v>-0.007289362473785035</v>
+        <v>-0.01741933451503766</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
         <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.01224083173076354</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.002313423811286827</v>
+        <v>-0.01997760123415561</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.01041242025232584</v>
+        <v>0.03689832681047959</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.05399261614799884</v>
+        <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.090779597890638</v>
+        <v>0.004340778207563172</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.0474184155616106</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0.09730318409812126</v>
+        <v>-0.003960614864994568</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.03943434858610916</v>
+        <v>0.01948045868174289</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.03402997637538141</v>
+        <v>-0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0.02773061271624895</v>
+        <v>0.06985241617754509</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.08341025629410045</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.08737116201811437</v>
+        <v>0.0554721187709872</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.03910328070029887</v>
+        <v>-0.08281562392342953</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.0624718520523339</v>
+        <v>-0</v>
       </c>
       <c r="EU3" t="n">
         <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0.07814211469166377</v>
+        <v>-0.01364673971126911</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.07076804765967479</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0.0294791461465303</v>
+        <v>0.03345761796252057</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.01811718472984306</v>
+        <v>0.008552491990315948</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0.001294722893373292</v>
+        <v>-0</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>-4.14038095870687e-05</v>
+        <v>0.0009320875651520778</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
         <v>-0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>0.02254343497725734</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.05865860279085151</v>
+        <v>-0.06511188971024752</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.0134870563611326</v>
+        <v>0.08352713753049504</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.007562072155508905</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.01256056583939203</v>
+        <v>-0.005842281054725282</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
@@ -2089,55 +2089,55 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.1207536911506798</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>-0.03213251910584106</v>
+        <v>-0.05964047506557543</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.06247651904654618</v>
+        <v>-0.09674116651613587</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0.07221569124584626</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.03261414931578976</v>
+        <v>-0.006983542009405877</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.02240828190059849</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>-0.02509916619671075</v>
+        <v>-0.04036786999475693</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0.008472971628810649</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
         <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.03537521371130102</v>
+        <v>0.02228775736387072</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,25 +2145,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.05145542079175836</v>
+        <v>0.02527182781634258</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08041028720181158</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01706627477812233</v>
+        <v>0.005103148531812541</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.03645942080786833</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2172,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01462948902706346</v>
+        <v>-0.0004942887352872031</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.00117086463280866</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.001946930639540486</v>
+        <v>0.0002734587728454436</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.009321055219299492</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
@@ -2196,55 +2196,55 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.000297027530409979</v>
+        <v>-0.009311291959372336</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.04401085835108762</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.0511025821076188</v>
+        <v>-0.001707484555018416</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.003390583600845882</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.04342165690096458</v>
+        <v>0.01221316796922605</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.05466929394304147</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.01025396989377793</v>
+        <v>0.01781000755768598</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.001339823274388302</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
         <v>-0</v>
@@ -2253,49 +2253,49 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.01763312054100655</v>
+        <v>0.001834663845924749</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.02157188754424486</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01157041559489233</v>
+        <v>-0.00887673943388689</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.0062577994922707</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.04556014819323068</v>
+        <v>0.04171305763163554</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0314048376250677</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.03877989886224052</v>
+        <v>0.01481848845429409</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.007101885675776443</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>0</v>
@@ -2307,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.01543494249187029</v>
+        <v>0.007083798773765775</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.02272826501816515</v>
+        <v>-0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0102695703240635</v>
+        <v>-0.006662519829755887</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.02076713732021096</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,22 +2334,22 @@
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.05938621455220993</v>
+        <v>0.0325128744668122</v>
       </c>
       <c r="BN4" t="n">
         <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03930795387804271</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.005857752221240827</v>
+        <v>0.008043236239876747</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.003250167010372724</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
@@ -2358,49 +2358,49 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.01151448284922338</v>
+        <v>0.01299866386736707</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.04965020450027542</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.006669112944597664</v>
+        <v>0.0006467004295372201</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>0.005270244602268396</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.02986324065576034</v>
+        <v>-0.001337095902199276</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.01802577328525632</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01264188051079081</v>
+        <v>-0.00464611600510487</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.01685776153972063</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2409,106 +2409,106 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.01884905737795752</v>
+        <v>0.004079293048314576</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.01066038727315601</v>
+        <v>-0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.05460282579754745</v>
+        <v>0.00999404660924226</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.01510548099276317</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.03410751599923141</v>
+        <v>0.001905780870976901</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.01521323998358647</v>
+        <v>-0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.009085683138425735</v>
+        <v>-0.0004267751575013701</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.01491322002238111</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.03410332235604505</v>
+        <v>0.00419493575303595</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.007508195952325469</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.008932427421111295</v>
+        <v>0.01042563186418663</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.01189505640312133</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.02419094076782602</v>
+        <v>-0.001786912834538432</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.003723349345981146</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.05625257978326585</v>
+        <v>0.01004271449431568</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>-0.009004453197220187</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.01769276646945347</v>
+        <v>-0.0133584167880645</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.02421127799093048</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.001814927975694151</v>
+        <v>-0.01534191556655579</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.007329903017803468</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2547,22 +2547,22 @@
         <v>-0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.02582431574355508</v>
+        <v>-0.0001142359007693035</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.01381385820564384</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.05565051103761727</v>
+        <v>-0.005969661170169345</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.01124121991541926</v>
       </c>
       <c r="EL4" t="n">
         <v>0</v>
@@ -2571,58 +2571,58 @@
         <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.02565193245215103</v>
+        <v>-0.003940011516657378</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.007425445739203193</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.06212280850228863</v>
+        <v>-0.001071998945759593</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.02417692945130313</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.02676432470900447</v>
+        <v>0.00400579663910141</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.01207766501617501</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01922799664982396</v>
+        <v>-0.001733270420803214</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.01683109116464705</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
         <v>-0</v>
@@ -2631,49 +2631,49 @@
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.02852244844051172</v>
+        <v>-0.002584715287659414</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.01460203201152398</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.02454767245694071</v>
+        <v>-0.02178602106301987</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.004007797275748915</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.03925318814815753</v>
+        <v>-0.002381027121123677</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.06909091491670788</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.02025268478407907</v>
+        <v>-0.003152508077921613</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.01683238647885475</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
         <v>-0</v>
@@ -2685,25 +2685,25 @@
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.03098611161260886</v>
+        <v>-0.02017105374383327</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.01793046168003972</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
         <v>-0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.001920558501812165</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2711,46 +2711,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.179057703084732</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1033079631501305</v>
+        <v>-0.05558065897604197</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0877302080316593</v>
+        <v>-0.04059605509819462</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03709401708871136</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.006646660010186468</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002155551583270774</v>
+        <v>0.04201315394694989</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0008913107074566223</v>
+        <v>0.001047150342291244</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,34 +2759,34 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0506504414891773</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.0404070191828752</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01257286006382859</v>
+        <v>-0.002387053340851812</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.107331791790454</v>
+        <v>0.01594048126486085</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.04878991837736975</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.03685754622237068</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02945392815325017</v>
+        <v>0.01107381203883821</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.06779320651979483</v>
+        <v>0.003782447993483443</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0584624413104568</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.02172785289946226</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1170573656620065</v>
+        <v>-0.03545205452821976</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.08462759715712545</v>
+        <v>-0.04302159777676151</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.03847076397241974</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.2703417742115063</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.1346046258515596</v>
+        <v>0.02774174471132565</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.09386079453875215</v>
+        <v>0.08278432767340703</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,25 +2867,25 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.08006695430873381</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.002156827818627739</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.006473515344481266</v>
+        <v>-0.02178526599238468</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.02511184158676405</v>
+        <v>-0.04605738949829271</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,52 +2894,52 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0002332001250330537</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.04954388051248602</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.03553493879210923</v>
+        <v>0.03465274244737051</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.006497677176040935</v>
+        <v>0.0868669161088883</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.1103553669703859</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.1641965637135762</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.1662600336150025</v>
+        <v>0.004276743072890333</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.05422910706652328</v>
+        <v>0.02172081530906695</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,133 +2948,133 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.1086100257519808</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.05209855873719033</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.05343589151255147</v>
+        <v>0.001196112744174317</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.0003353365250925836</v>
+        <v>-0.01061292794628031</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.01804573089866358</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.02143532233217262</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.1117440457396607</v>
+        <v>-0.08323489486145619</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.04534404333381211</v>
+        <v>-0.1060004608147263</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.06813177781735734</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
         <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.03671194135407171</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.05407573247140835</v>
+        <v>0.01344640472267873</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01433460824791173</v>
+        <v>-0.005658107358652037</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.009239445901905069</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.04240421817716705</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.08300761633122836</v>
+        <v>0.009878522023989764</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.07100822673288823</v>
+        <v>0.03751443879591861</v>
       </c>
       <c r="DJ5" t="n">
         <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.03171475467493521</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.069047653198428</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0006531697807323455</v>
+        <v>0.03038882862172606</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.007645601396389584</v>
+        <v>-0.01319929464384162</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3083,169 +3083,169 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.005023119568968401</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.01273588766139809</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.006047004332994803</v>
+        <v>0.05076018916044874</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.03910454395782047</v>
+        <v>0.008355395132737187</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>-0.05443011261342157</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.02952552710956375</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.09665317912437311</v>
+        <v>0.02817614105982076</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.07114879661164808</v>
+        <v>0.01920019486426637</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.06290381360541071</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.05926352405389873</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.05751479916242849</v>
+        <v>-0.002407886373593612</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.01986883082850067</v>
+        <v>0.01299695881763458</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.07424885965831707</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.03918079164531709</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.04547564508771993</v>
+        <v>0.01779762568562731</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.001700472489685005</v>
+        <v>-0.01243797696115442</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.02424535992190602</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.03192868437423697</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.04225950854074205</v>
+        <v>0.04482164634306794</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.08637031508452635</v>
+        <v>0.005387321960322792</v>
       </c>
       <c r="FL5" t="n">
         <v>0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>-0.02152510687738524</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.0297976237589402</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.0655179503621602</v>
+        <v>0.01373378704100298</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.1090460902519634</v>
+        <v>0.07035325472313568</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.02849521292055041</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
         <v>0</v>
@@ -3254,159 +3254,159 @@
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>0.02293622947466191</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.04777665995807663</v>
+        <v>-0.04324805030302344</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01075746028117244</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1100111757556614</v>
+        <v>0.05007779304031933</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1901644720748915</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01139479329369712</v>
+        <v>0.01054906574957029</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.07564314387919324</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008949033852073107</v>
+        <v>0.004621447042429646</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01516833688843498</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.001600819285401435</v>
+        <v>0.0002447002989517753</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.006017771908539481</v>
       </c>
       <c r="P6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.008476339662107646</v>
+        <v>-0.0039141919758399</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.08010576146105937</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.1332550949792642</v>
+        <v>-0.01993787625481741</v>
       </c>
       <c r="X6" t="n">
-        <v>-0</v>
+        <v>0.003349317665797206</v>
       </c>
       <c r="Y6" t="n">
         <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.05244553856430077</v>
+        <v>0.01192329041052107</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1401450060066506</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.07404708522986655</v>
+        <v>0.02306036339754872</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>-0.009545907407965584</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.04637649579624947</v>
+        <v>0.01401268533857203</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0009485880640094831</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.02921521984347992</v>
+        <v>-0.008972330813739535</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.017584057038823</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>-0</v>
@@ -3415,22 +3415,22 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1440951164461167</v>
+        <v>0.06188319872505958</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.06833404653413397</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.006504951609141649</v>
+        <v>0.001984766561966509</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.03618383507946013</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3442,22 +3442,22 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.02429930969906334</v>
+        <v>0.01423338432031802</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.07018941168391862</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.01174590074526855</v>
+        <v>-0.005340084305939117</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.02169529952862786</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,82 +3466,82 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0890924607145276</v>
+        <v>0.03706610015735281</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.0195586875322732</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.01564326655580812</v>
+        <v>0.00137886763856877</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01270147721912102</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.01731809930559079</v>
+        <v>0.03098190261392727</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.1014561451413421</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.06204556206516847</v>
+        <v>-0.01309011307327854</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>-0.008454670957304176</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0608511554315923</v>
+        <v>-0.004026054302841274</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.05863915306018981</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01804787872938541</v>
+        <v>-0.01439455478993529</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.02943491584799763</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -3550,106 +3550,106 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.07769486705110322</v>
+        <v>0.002744097054387966</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.004678090100582928</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.1352560416102401</v>
+        <v>0.004421283151622923</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.02991318706183083</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.05664419711794392</v>
+        <v>-0.0009843034069631272</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.06256701730220528</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01499314128583807</v>
+        <v>-0.009605319437846099</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.03037602462605556</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
         <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.05133681748875234</v>
+        <v>-0.005321917088333096</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.01125029233209228</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.03863786468970924</v>
+        <v>0.008656188662753677</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.00425153414170033</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.03260548532746819</v>
+        <v>0.01368033490258256</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0.006929690138127842</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.1380172848206222</v>
+        <v>0.01830839338044751</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>-0.001764884285027933</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.05544929770575715</v>
+        <v>-0.01612016922130185</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.05220123433012325</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.02783347540623127</v>
+        <v>0.008038264709685964</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0.0008397140750411004</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,49 +3685,49 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.02976230432005825</v>
+        <v>-0.001335575368012285</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.07309342682993397</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.0622226235142164</v>
+        <v>-0.00393921668131074</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0</v>
+        <v>0.0336732973658762</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01089883215219129</v>
+        <v>-0.004911591455929957</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.0169425448048677</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.06466546980943769</v>
+        <v>-0.02455586964675239</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.05776829604457789</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3739,52 +3739,52 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.05978130166638479</v>
+        <v>0.0002625791468348909</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.05454172890566828</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.03302855127132705</v>
+        <v>-0.01184378480620015</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.0315454843573584</v>
       </c>
       <c r="FD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.02997550159293541</v>
+        <v>-0.01828416510843671</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.07861713893635412</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.01677605463238911</v>
+        <v>-0.00884936757940173</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.0131190577481996</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>-0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.00316390898339204</v>
+        <v>-0.001289467842618323</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.01021970546259192</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.03975698520257949</v>
+        <v>-0.004532772300735254</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>-0.005025939685359677</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02170525818745446</v>
+        <v>-0.01310175628291698</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.04899162242012094</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.01083441456026264</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3849,46 +3849,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.3743193515911779</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1197213417906419</v>
+        <v>-0.1005645864007494</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01184113168473137</v>
+        <v>-0.01266879395680505</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.07047029496723428</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.04411592312176861</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01294820680114145</v>
+        <v>0.04058206689843002</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.005038600092036288</v>
+        <v>-0.004327172684046868</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3897,61 +3897,61 @@
         <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03316575416027923</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1143402732116307</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.01316659885046914</v>
+        <v>-0.02776560918484423</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.077452586365994</v>
+        <v>0.003921963410133611</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.03540195393159554</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.034030029285428</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.06774102555556556</v>
+        <v>-0.01933465556032977</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01921008425461054</v>
+        <v>-0.01951619847666063</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.006943961394223101</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>-0</v>
@@ -3960,25 +3960,25 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.03794212496255338</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.06637938044936766</v>
+        <v>-0.06838975265464836</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.05421345918579216</v>
+        <v>-0.04982647368909352</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
         <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.02927127880259264</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
@@ -3987,16 +3987,16 @@
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.4035924967114521</v>
       </c>
       <c r="AV7" t="n">
         <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1100601548860058</v>
+        <v>0.02170152623225912</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.03908380818681272</v>
+        <v>0.132410953067056</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
@@ -4005,25 +4005,25 @@
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0.152388065805902</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.0209002513132526</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.02814555383924857</v>
+        <v>-0.04228050037332897</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.01850824062391767</v>
+        <v>-0.07870231021521754</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -4032,34 +4032,34 @@
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.01571135935562051</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.08771199059844108</v>
       </c>
       <c r="BN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.003225984798648116</v>
+        <v>0.0562732221129784</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.001291923805335823</v>
+        <v>0.1394501225619905</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.06278769495483615</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
@@ -4068,106 +4068,106 @@
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.249151516727693</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.09609445579128283</v>
+        <v>0.01926106791242726</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.03816171039072902</v>
+        <v>0.05079753823878407</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0.09909428247167244</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0</v>
+        <v>-0.1042733716709371</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.06149674612808446</v>
+        <v>0.01501755107066117</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02702836502601935</v>
+        <v>-0.02686593633488366</v>
       </c>
       <c r="CI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.02400551910638126</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.01519892187788089</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.06950862350502519</v>
+        <v>-0.0794814897876307</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0723161418534318</v>
+        <v>-0.1169072747513461</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
         <v>0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.07631390500365819</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.09242146130369379</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.05764075760686033</v>
+        <v>0.03190055326482938</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.04518771259349662</v>
+        <v>-0.02835607320628163</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.01040236994513817</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
@@ -4176,52 +4176,52 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>0.004914283446959852</v>
       </c>
       <c r="DG7" t="n">
         <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.004324051340736718</v>
+        <v>0.02703554534200887</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.02460531479013083</v>
+        <v>0.0416598878403756</v>
       </c>
       <c r="DJ7" t="n">
         <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0.02769663189981477</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.07829971832212836</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.02584415168098951</v>
+        <v>0.00795865805094482</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.003150249881749466</v>
+        <v>-0.03096732837779371</v>
       </c>
       <c r="DS7" t="n">
         <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.1018562635732962</v>
+        <v>0</v>
       </c>
       <c r="DV7" t="n">
         <v>0</v>
@@ -4230,79 +4230,79 @@
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.03252234843670397</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.02251887700682852</v>
+        <v>0.002623193246797292</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.01131834580125057</v>
+        <v>-0.07762706143819127</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.08862137924379102</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.07493438974782489</v>
       </c>
       <c r="EH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.079190473552298</v>
+        <v>0.02645106746420135</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.02068498631119925</v>
+        <v>0.008196329308332306</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0482953728953923</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.06940558461719064</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.04354343716597511</v>
+        <v>0.04062240551551103</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.008215919820281423</v>
+        <v>-0.03254308031319406</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0.01977329362624404</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
         <v>-0</v>
@@ -4311,261 +4311,261 @@
         <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.09438386436581098</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.05115860182546686</v>
+        <v>0.02423872308956363</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.04179915652337959</v>
+        <v>-0.0181587683924258</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.02499965201180746</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
         <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.01182207684847068</v>
       </c>
       <c r="FI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.06587390138676684</v>
+        <v>0.01663798251865446</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.09898363164035713</v>
+        <v>-0.03813748395499191</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0.01352324180815514</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.003291821387888793</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0.005030987184671302</v>
+        <v>0.0005745135726460095</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01829557112104512</v>
+        <v>0.001949551378640368</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0451954364791665</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.01359856473351841</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>-0.0325913300099974</v>
+        <v>-0.04377406826714676</v>
       </c>
       <c r="GC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
         <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.03318419090639938</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.4388211964457429</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2254107302495985</v>
+        <v>-0.1218425185198898</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1206217805886771</v>
+        <v>-0.08540686289176971</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1623019972773193</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1243109113441424</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01352402801379373</v>
+        <v>0.05117174064583307</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.009858884364976755</v>
+        <v>-0.01906684244997172</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06607877669959547</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.1621114424947721</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.142455934109307</v>
+        <v>0.0281950731428919</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.3537321949609227</v>
+        <v>0.09436106228426988</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.02605585111163133</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.1459535117536978</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1156952031403899</v>
+        <v>-0.04853207590519955</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.2179349882286304</v>
+        <v>-0.02938176661209048</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.08975725671947894</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.07208401930385602</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.06820812968958352</v>
+        <v>-0.04426025404094739</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.07235534067983182</v>
+        <v>-0.03557415237358803</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.02207472768737129</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.456198259663287</v>
       </c>
       <c r="AV8" t="n">
         <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.2971498160347453</v>
+        <v>-0.009130371535661239</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.1648172659537912</v>
+        <v>0.1249270366666967</v>
       </c>
       <c r="AY8" t="n">
         <v>-0</v>
@@ -4577,52 +4577,52 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.1477827802762102</v>
+        <v>-0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.03679241971460735</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.02487692932540114</v>
+        <v>-0.03481922215939829</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.01134808551309188</v>
+        <v>-0.1416878269222811</v>
       </c>
       <c r="BH8" t="n">
         <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.04730374003867183</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>-0</v>
+        <v>0.005212196756841613</v>
       </c>
       <c r="BN8" t="n">
         <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.03335048399376883</v>
+        <v>0.05970864518148444</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.03490609285635841</v>
+        <v>0.0500127714189022</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
@@ -4631,157 +4631,157 @@
         <v>-0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.02516140037197793</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.3121173652447228</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.1908094464247491</v>
+        <v>-0.04193154382975608</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.1259715817327643</v>
+        <v>0.08007578505260053</v>
       </c>
       <c r="BZ8" t="n">
         <v>-0</v>
       </c>
       <c r="CA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0.1321721938032579</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.1207309283181497</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0.05696607101803881</v>
+        <v>0.03190375901582785</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.009467324830561518</v>
+        <v>-0.03081760278052562</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.06458164503247261</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.06417718830189151</v>
       </c>
       <c r="CO8" t="n">
         <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0.008182483628354558</v>
+        <v>-0.07725371035573846</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.05983307656793783</v>
+        <v>-0.1932587229952875</v>
       </c>
       <c r="CR8" t="n">
         <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.01708139056742449</v>
+        <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>-0.1123398300874388</v>
       </c>
       <c r="CX8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0.05264102109167715</v>
+        <v>0.04521344291658282</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.002647465083118818</v>
+        <v>-0.02248082972006972</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.06023005660132043</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0</v>
+        <v>-0.05678727132339498</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0.0542276558623979</v>
+        <v>0.02336023222766307</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.002846190121344374</v>
+        <v>0.0002270466359257233</v>
       </c>
       <c r="DJ8" t="n">
         <v>0</v>
       </c>
       <c r="DK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0.005267136006344687</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.07910107526561207</v>
       </c>
       <c r="DP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0.1379672641390761</v>
+        <v>0.007579799349530753</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0238417916556736</v>
+        <v>-0.09103082719173956</v>
       </c>
       <c r="DS8" t="n">
         <v>0</v>
@@ -4790,136 +4790,136 @@
         <v>-0</v>
       </c>
       <c r="DU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.04851446557674243</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>0.108106423222479</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.04416088905506481</v>
+        <v>-0.02855544531002914</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.02505273392200289</v>
+        <v>-0.01168743399480301</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
         <v>-0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0.007466348556172159</v>
+        <v>-0</v>
       </c>
       <c r="EF8" t="n">
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>-0</v>
+        <v>-0.05609733717292423</v>
       </c>
       <c r="EH8" t="n">
         <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.03823294873535571</v>
+        <v>0.04977143995591936</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.1832115522808757</v>
+        <v>0.04615442148878053</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
         <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.1035920094117156</v>
+        <v>-0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.06874145655877079</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.01478035998353394</v>
+        <v>0.02854858086413556</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.1132150025026808</v>
+        <v>0.0334417424932234</v>
       </c>
       <c r="ET8" t="n">
         <v>-0</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.05729909072064077</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>-0</v>
+        <v>-0.1237033470265319</v>
       </c>
       <c r="EZ8" t="n">
         <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0.05460699664023368</v>
+        <v>0.05568962199300655</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.009316456389741039</v>
+        <v>-0.03546435816912003</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.07478074062078464</v>
+        <v>-0</v>
       </c>
       <c r="FG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.009153718639000209</v>
       </c>
       <c r="FI8" t="n">
         <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0.01783968192162229</v>
+        <v>0.06566307982452435</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.04054971872400117</v>
+        <v>-0.04435073241227628</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
@@ -4928,72 +4928,72 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.005380781615400888</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>-0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.01556357366105037</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0.01567159419649949</v>
+        <v>-0.1691495736589476</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.01465094795476737</v>
+        <v>0.01967458937509689</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV8" t="n">
         <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.02121219560323645</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
         <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.06122338611806851</v>
       </c>
       <c r="GA8" t="n">
         <v>0</v>
       </c>
       <c r="GB8" t="n">
-        <v>-0.03746503777453956</v>
+        <v>-0.06025242288343506</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE8" t="n">
         <v>-0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.05487381053035589</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5014,13 +5014,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -5041,13 +5041,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -5068,13 +5068,13 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -5095,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -5122,13 +5122,13 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -5149,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
@@ -5176,13 +5176,13 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
         <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -5203,13 +5203,13 @@
         <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
         <v>0</v>
       </c>
       <c r="BW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
@@ -5230,13 +5230,13 @@
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
@@ -5257,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
         <v>0</v>
       </c>
       <c r="CO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
         <v>0</v>
@@ -5311,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
         <v>0</v>
       </c>
       <c r="DG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -5338,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
         <v>0</v>
       </c>
       <c r="DP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ9" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
         <v>0</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
@@ -5419,13 +5419,13 @@
         <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
         <v>0</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER9" t="n">
         <v>0</v>
@@ -5446,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
         <v>0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
         <v>0</v>
@@ -5473,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
         <v>0</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
         <v>0</v>
@@ -5500,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
         <v>0</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
         <v>0</v>
@@ -5556,76 +5556,76 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4114517640102658</v>
+        <v>-0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.07041854567951854</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.09606851390089081</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09998073153112164</v>
+        <v>-0.04276080598487961</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.03448991501585132</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1718798074830087</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.01918446032559972</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009556699531068745</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.1016059147400914</v>
+        <v>-0.02016488248016724</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0.002415639756009358</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>-0</v>
       </c>
       <c r="R10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02268901775165034</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>-0.001422112321366846</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.03003121075970708</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.1986242690320483</v>
+        <v>-0.01512137484773312</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.02194889142196481</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -5637,52 +5637,52 @@
         <v>-0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.03387807928873965</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.02052853937479434</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.005725395853815155</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.02485413888114397</v>
+        <v>0.01833002718512783</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0.008718069630720216</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.1055380018208118</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.01147164167603195</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.001401867919805287</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.02872073152802563</v>
+        <v>-0.01510961600197606</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>-0.01086246037456286</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>-0</v>
@@ -5691,76 +5691,76 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.2065777194599336</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.05205667706959215</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.0924332677643292</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.003571314303162496</v>
+        <v>-0.02858743586049714</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0</v>
+        <v>-0.004867952513343496</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.09204959333743597</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.02874893433471825</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.02100383251680581</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.03612863270902157</v>
+        <v>-0.02180477298789317</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>-0.01375656844858913</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.03046911690332659</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.0402516855643156</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0594379873146612</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
         <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.144684267146705</v>
+        <v>0.02494271936883833</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0</v>
+        <v>0.01349132684054652</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
@@ -5772,130 +5772,130 @@
         <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.2093729464109577</v>
+        <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.03568310809729451</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.01890438556995679</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.01135584696557412</v>
+        <v>-0.009974248178150139</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0</v>
+        <v>0.01441244178026927</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
         <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0.116647912024482</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.008611055526533936</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.03711319631417014</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
         <v>0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.02927513042090222</v>
+        <v>0.008630306697097589</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0.009882756743934016</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.004803805415957117</v>
+        <v>-0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.008961632045336697</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0.0003742736007881408</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.1428738097662713</v>
+        <v>-0.002664999368701173</v>
       </c>
       <c r="CR10" t="n">
-        <v>0</v>
+        <v>-0.0189736864903143</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0.09890028663230813</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.004099764003274066</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.04048622892390486</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
         <v>-0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.02726103776325821</v>
+        <v>0.01076196394330022</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>0.01453482255229994</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.004113798726690106</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.002708951022966143</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.03604034253064912</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.02192222633363982</v>
+        <v>0.01827369814223722</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>-0.002855155447541098</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
@@ -5904,52 +5904,52 @@
         <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.004185087919433515</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.0144376802423754</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0.002690063948268172</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.01637560461060083</v>
+        <v>0.01599098606205232</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>-0.01254204876073749</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
         <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.005088216934047126</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.00306985603878843</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0.006267425573472918</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.08445420244899565</v>
+        <v>-0.02182167655902783</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>-0.01877489372909164</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
@@ -5961,76 +5961,76 @@
         <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0.1832202033361666</v>
+        <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.00135489638653182</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.04229513782856281</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
         <v>0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.08171143715165403</v>
+        <v>0.0006678494162960995</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>0.01265159192503906</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
         <v>0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0.03414252406343619</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>0.004246568057040912</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.02170969818201934</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
         <v>0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.02366047502553173</v>
+        <v>0.01753762879933208</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0</v>
+        <v>0.01420291357370249</v>
       </c>
       <c r="EU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
         <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0.097905369825295</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.002627851761271225</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.03741115874476902</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
         <v>0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.01209500762617145</v>
+        <v>0.008571799232864229</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0.01632437512518428</v>
       </c>
       <c r="FD10" t="n">
         <v>0</v>
@@ -6039,70 +6039,70 @@
         <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0.1000543087427296</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>-0.01085019116500442</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.02808670274323185</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
         <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.01424701639900509</v>
+        <v>-0.03239541369999967</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>0.01676653891482683</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0.006978990723541715</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.001858082844007534</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.0009590593737525741</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.0001045053521371941</v>
+        <v>0.0001459296042515728</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0.002930839238697177</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.06153175980190333</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.01889523361399677</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.004833432189813012</v>
+        <v>0</v>
       </c>
       <c r="GB10" t="n">
         <v>0</v>
@@ -6111,13 +6111,13 @@
         <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0</v>
+        <v>-0.01099495732083293</v>
       </c>
       <c r="GE10" t="n">
         <v>0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
         <v>0</v>
@@ -6125,76 +6125,76 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3263176906378451</v>
+        <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0.08877833924555664</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.03368491197195167</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.06307832916147987</v>
+        <v>-0.04446934124482185</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.01985085272268796</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1616410496846757</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0.02961278103150861</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001777742389555115</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.07529911363193809</v>
+        <v>-0.02116197723243367</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.0006190800467525283</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02135445610749687</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>0.0084893609546945</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.02802637208556162</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1581721941652463</v>
+        <v>-0.009246881956212823</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.02152762153384739</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -6203,268 +6203,268 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02007971885247111</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.01975111664260675</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.02132294383126325</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02347425436095994</v>
+        <v>0.01681542677376585</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0</v>
+        <v>0.009174668573519262</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.07556148883581247</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.01455850467467693</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.006180323705898363</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.01310882261894973</v>
+        <v>-0.01668442175040479</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.01265847416729718</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1579328261981517</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.07345685846882351</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.02502252041444719</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.02332463128438243</v>
+        <v>-0.03144046500151488</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0</v>
+        <v>0.001671044749558859</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.07760554197744728</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.02944109642778267</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.03630536631309133</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.03052118990970228</v>
+        <v>-0.0268451567447865</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.02635909745177401</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.02650714705837654</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.03480107899621444</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.04033077873448483</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
         <v>0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0908296110099252</v>
+        <v>0.02758123969187382</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0</v>
+        <v>0.01153581761683916</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
         <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.1569538718850093</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.0452726762743703</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.007361577258124153</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01608540595532071</v>
+        <v>-0.003064323152637533</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0</v>
+        <v>0.01270934978757614</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC11" t="n">
         <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.08648650871377506</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.01310460350038499</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.01936010809284101</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
         <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01731503985696181</v>
+        <v>0.006331917465452871</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0</v>
+        <v>0.01002032160650301</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.001831232845439306</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0.02564510775510228</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.009764996580140479</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
         <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.1131460004277684</v>
+        <v>0.002359774274639662</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.01353445967283454</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0.07439559614402581</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.008092474062298682</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.02584822676213462</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.02671709152400161</v>
+        <v>0.009807911798647864</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.01192015604043141</v>
       </c>
       <c r="DB11" t="n">
         <v>-0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.008865504230088592</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.004981283480631214</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.01930641613678696</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.005618225961820573</v>
+        <v>0.003590181564720567</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0</v>
+        <v>-0.001563816914731223</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
@@ -6473,52 +6473,52 @@
         <v>-0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.003988617558935406</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0.005003262186655477</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.003903093607082714</v>
+        <v>-0</v>
       </c>
       <c r="DQ11" t="n">
         <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.02241749405769582</v>
+        <v>0.00133529032755478</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0</v>
+        <v>-0.01581841308676644</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0.008798291509540156</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>0.004859067397835357</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.004461156955529484</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.07931972935232669</v>
+        <v>-0.03062750162122077</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>-0.01807467550615735</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6530,148 +6530,148 @@
         <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0.1366532553071918</v>
+        <v>-0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.01071583598840454</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.02133281738348849</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
         <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.06313076033355938</v>
+        <v>0.007259950332091567</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.002919550630913587</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0.02527271572303545</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0.0006664433510864164</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.01624176668566404</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
         <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.03226530073685482</v>
+        <v>0.01139312301820465</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.01158769626503037</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0.07336771177512745</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.01056723944547273</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.0206741107302665</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
         <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.01327202913019554</v>
+        <v>0.008575501604493189</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.01384710593178252</v>
       </c>
       <c r="FD11" t="n">
         <v>0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0.07909295713505332</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.01235264831950694</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.009527798325941535</v>
+        <v>0</v>
       </c>
       <c r="FJ11" t="n">
         <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.02544539481510485</v>
+        <v>-0.0265059629771339</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.01963442309272521</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0.009200060961327246</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0.004767391533324688</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.00660326133858769</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>-0.004371951883678751</v>
+        <v>0.0002263446708751271</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0</v>
+        <v>0.004135696263798475</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.04940493112592435</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>-0.0249426801703967</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.001734522059984566</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
         <v>0</v>
@@ -6680,13 +6680,13 @@
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.007819773024934541</v>
       </c>
       <c r="GE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
         <v>0</v>
@@ -6694,10 +6694,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -6721,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -6748,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -6775,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -6829,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -6856,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
@@ -6883,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
@@ -6910,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
@@ -6964,10 +6964,10 @@
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
@@ -7045,10 +7045,10 @@
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
@@ -7099,10 +7099,10 @@
         <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH12" t="n">
         <v>0</v>
@@ -7126,10 +7126,10 @@
         <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
@@ -7180,10 +7180,10 @@
         <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI12" t="n">
         <v>0</v>
@@ -7207,10 +7207,10 @@
         <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR12" t="n">
         <v>0</v>
@@ -7263,52 +7263,52 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4224082938712637</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.3099996325487955</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0595803187426617</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.1520473430676675</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01016986891048814</v>
+        <v>-0.07948738901412787</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.05706306293123509</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02753262648133129</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3086917289573298</v>
+        <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.1633377197699055</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01779477213944802</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-0.09694810127962389</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.07290384213079908</v>
+        <v>-0.04905049095310452</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>-0.01739968377037905</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02660439802068192</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -7317,133 +7317,133 @@
         <v>-0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02590991730773228</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.06778747530504935</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.05596886077242814</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-0.01277104845864213</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.1323921180957303</v>
+        <v>0.03801282308240116</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.05166093139754185</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.07855830497145354</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0183685305433681</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.04645003496008007</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.04146052389148204</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.04578744227504315</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.02462673568359003</v>
+        <v>0.004179373705178504</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.006664650630156319</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.07597015849805011</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.08989373989831317</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.0002630659017314988</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.00066577822232062</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>-0.03062671145789368</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.01337811017424733</v>
+        <v>-0.04210373138906165</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.02947037723358778</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.007726069421492887</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1867146213693583</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.2941186288824618</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.05308156023615978</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0</v>
+        <v>-0.01692227407602446</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.03334571024153076</v>
+        <v>0.04065886128373997</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.04399030655613984</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.03155631816114974</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.09738030960331437</v>
+        <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>-0.005595269159565522</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.01194355614787351</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>-0.03909333742096237</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.02247555545312835</v>
+        <v>-0.09298057286533257</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.06281845658734803</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0.00421262165127421</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -7452,52 +7452,52 @@
         <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.04426749473677368</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.06813108831518848</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.02674635632071147</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.06105847445403056</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.111557603235305</v>
+        <v>0.07170751362502967</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.02145254575782661</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.03437141648634026</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.173071906417582</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.1672274515514129</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0.0213031168773712</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>0.03049336237416117</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.02450020991896733</v>
+        <v>-0.01024942354970984</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>0.03791817339779943</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.01606947134624171</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
         <v>-0</v>
@@ -7506,52 +7506,52 @@
         <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.106051744668405</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.0625915836504876</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.01823016560087533</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0</v>
+        <v>0.0127271235749649</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.002307822849153963</v>
+        <v>-0.006476174901930121</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.03369012431948333</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0.01332076751848056</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0.0008859815941802335</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.03064902272412317</v>
       </c>
       <c r="CO13" t="n">
-        <v>-0.01203533995191794</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0</v>
+        <v>-0.08886404582336595</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.1216201757938906</v>
+        <v>-0.07810973452156005</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.07323239157647458</v>
       </c>
       <c r="CS13" t="n">
-        <v>-0.03804771722118951</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
@@ -7560,25 +7560,25 @@
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0.09474370534029092</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.05085865427141057</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.02323215881148919</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0</v>
+        <v>0.03463164200354774</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.03364559872752026</v>
+        <v>-0.00521556552026968</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.0431147117481105</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.002406155508637049</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
         <v>-0</v>
@@ -7587,79 +7587,79 @@
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.01691018267086821</v>
+        <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.007632717204868939</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.01354672953841096</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>0.0732837731701485</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.001409483320296511</v>
+        <v>-0.005767680036884574</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0.004554382362190317</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0.009751145460859307</v>
+        <v>-0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0188160620028024</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.01801918502989224</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0.006105808936978829</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0</v>
+        <v>0.04399165542017191</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.04489845373186987</v>
+        <v>0.0008517988928601302</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.01365255598983598</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.02649831848258379</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.01133692155559577</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>0.01748528585245597</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0.02492654081104682</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0</v>
+        <v>0.004184540656828695</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.01558926409126016</v>
+        <v>-0.03517517422446546</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>0.005342607649196261</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0.00920249455329452</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7668,174 +7668,174 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0.177274792691957</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.08575205836553199</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.01453435138669711</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0</v>
+        <v>0.05425248413435411</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.01233663066977108</v>
+        <v>0.05182269844287034</v>
       </c>
       <c r="EK13" t="n">
-        <v>0</v>
+        <v>0.001135052737882999</v>
       </c>
       <c r="EL13" t="n">
-        <v>-0.04150273853558535</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0.02813608573608121</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.04241188184384859</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.02027376408398009</v>
+        <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>0.01322707923719843</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.04947664266580731</v>
+        <v>-0.01436755760219574</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.07622966246784686</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.003246488003558882</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0.09328240806854317</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.04727960417496217</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.02224027765507023</v>
+        <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0</v>
+        <v>0.01963905948037998</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.0193796644412708</v>
+        <v>0.006506999670533001</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.03376111485827422</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.003241590167271311</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
         <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0.0900399224196393</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>0.04241331494919174</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.03740435528804304</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0</v>
+        <v>0.04604075009935117</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.07109200362947071</v>
+        <v>0.004987403257038624</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0.009311224950646341</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.03263394138844857</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0.01422128977288616</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>0.009796780033822965</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.004707660586807455</v>
+        <v>0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0</v>
+        <v>0.003740319932854194</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.002367989739902131</v>
+        <v>0.002628945037036377</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.00118754240106085</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0.003623964460376242</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.06148887467540935</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.01334767892083837</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0.01190519887757369</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0.03735117513608368</v>
       </c>
       <c r="GC13" t="n">
         <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0.0127489125989381</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.008658728197042564</v>
+        <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8318,10 +8318,10 @@
         <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI14" t="n">
         <v>0</v>
@@ -8345,10 +8345,10 @@
         <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
         <v>0</v>
@@ -8401,187 +8401,187 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5774919157531754</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0.2014250280682592</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2764206493195529</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1415833800984938</v>
+        <v>-0.09200631829579886</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>-0.08062456975761953</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4777207667431705</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1169314741976602</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.178722805900747</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.08008402132002573</v>
+        <v>-0.05743087201827</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0.04369611145514982</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
         <v>-0</v>
       </c>
       <c r="R15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01128199362884526</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.02952704333614772</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.08586648454985077</v>
+        <v>-0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.1738174933844546</v>
+        <v>-0.02979583603851226</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.01735652581989239</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.04849273428955855</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>0.03927605968392829</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.007446103229909411</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.06854198681577263</v>
+        <v>0.02669298569573883</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>-0.007339199732619318</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.1053452641428171</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.03651967162691664</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.02939600963258053</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.01911447003838209</v>
+        <v>-0.01201795162506261</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>-0.04574413505201786</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.2140292113921533</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.1293526490807242</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.1555153688989747</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.06257959582646816</v>
+        <v>-0.03257341192550978</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0.03328006498120321</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
         <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.1165453585515007</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>0.03575674675821035</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0.07508797176668099</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.1862600050678684</v>
+        <v>-0.05044775971662414</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>-0.01130037250511988</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
@@ -8590,22 +8590,22 @@
         <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0.04013606121362935</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.04839045177212065</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.06900715344685866</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.1522299750341298</v>
+        <v>0.03335745530257225</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0.02025835431190887</v>
       </c>
       <c r="BR15" t="n">
         <v>-0</v>
@@ -8614,28 +8614,28 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.2225371816128823</v>
+        <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.08692125659463283</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0.08093851704559997</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.01504540161152902</v>
+        <v>-0.02838406756407246</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>0.003180392820273569</v>
       </c>
       <c r="CA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
         <v>-0</v>
@@ -8644,25 +8644,25 @@
         <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0.1385800325097132</v>
+        <v>-0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0.03155980377962528</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.05735469784881402</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.008074773975982621</v>
+        <v>0.009172091426206265</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>0.01876338434070613</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -8671,49 +8671,49 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.001725329971433131</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>-0.002976341298522299</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0.01139839338824733</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.10327124889357</v>
+        <v>-0.02266085058941829</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>-0.03165135832988876</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
         <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0.1208813977895715</v>
+        <v>0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>-0.02430928672717448</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.05799253033291896</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.05386264119076515</v>
+        <v>0.00650877281200749</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0.0298776638715375</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
@@ -8722,109 +8722,109 @@
         <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0.0006785538456886727</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>0.001680684392392846</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.01187960686166797</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01446683438047562</v>
+        <v>0.02874136885777884</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>-0.001630632569430148</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0.04018083482359774</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.03208056501992437</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0.04422354786486454</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
         <v>-0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.02162376793061257</v>
+        <v>0.03122569615192393</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0.02934512895559011</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
         <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.02858933943417912</v>
+        <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.00244316170148128</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0.03197392426063159</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.0636225126124431</v>
+        <v>-0.0330359396089983</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>-0.01776810495189621</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
         <v>-0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0.1963018841055953</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.01651200922167229</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.07851403169089849</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
         <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.002099528058147964</v>
+        <v>0.01804569646023286</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>0.007079115459603778</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
         <v>0</v>
@@ -8833,49 +8833,49 @@
         <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0.03570616919291333</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0.009539738808423888</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0.06604923006325231</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.009197842849794607</v>
+        <v>-0.007461725977477414</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>-0.03341231867210454</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
         <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0.1224934675494541</v>
+        <v>-0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.02148890221554492</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.04836602455163965</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.03072385492383511</v>
+        <v>0.002581746181322266</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>0.02802274663835849</v>
       </c>
       <c r="FD15" t="n">
         <v>-0</v>
@@ -8884,85 +8884,85 @@
         <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0.06602823474675837</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.01692005645209731</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.06175181507808992</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
         <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.02519138859413609</v>
+        <v>-0.05096335375462051</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>0.01434206327597235</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0.01989981762077488</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>-0.003215376394661621</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.03832315027037853</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
         <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0.02524020823647338</v>
+        <v>-0.001729138103803006</v>
       </c>
       <c r="FU15" t="n">
-        <v>0</v>
+        <v>0.01769520306561963</v>
       </c>
       <c r="FV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.04428882053675076</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>-0.02782295327691912</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0.04699197906731126</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC15" t="n">
         <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>-0.02353871312291389</v>
       </c>
       <c r="GE15" t="n">
         <v>-0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG15" t="n">
         <v>0</v>
@@ -8988,13 +8988,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -9042,13 +9042,13 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -9069,13 +9069,13 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -9096,13 +9096,13 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -9123,13 +9123,13 @@
         <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA16" t="n">
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC16" t="n">
         <v>0</v>
@@ -9150,13 +9150,13 @@
         <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
@@ -9177,13 +9177,13 @@
         <v>0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS16" t="n">
         <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -9204,13 +9204,13 @@
         <v>0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
@@ -9231,13 +9231,13 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
         <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT16" t="n">
         <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
         <v>0</v>
@@ -9366,13 +9366,13 @@
         <v>0</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED16" t="n">
         <v>0</v>
       </c>
       <c r="EE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF16" t="n">
         <v>0</v>
@@ -9393,13 +9393,13 @@
         <v>0</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
         <v>0</v>
       </c>
       <c r="EN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
         <v>0</v>
@@ -9420,13 +9420,13 @@
         <v>0</v>
       </c>
       <c r="EU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV16" t="n">
         <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX16" t="n">
         <v>0</v>
@@ -9447,13 +9447,13 @@
         <v>0</v>
       </c>
       <c r="FD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE16" t="n">
         <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="FM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN16" t="n">
         <v>0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
         <v>0</v>
@@ -9501,13 +9501,13 @@
         <v>0</v>
       </c>
       <c r="FV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW16" t="n">
         <v>0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
         <v>0</v>
